--- a/list.xlsx
+++ b/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
   <si>
     <t>Hohlfußtyp</t>
   </si>
@@ -321,13 +321,58 @@
   </si>
   <si>
     <t>928-324-R.jpg</t>
+  </si>
+  <si>
+    <t>Normalfuß</t>
+  </si>
+  <si>
+    <t>Hohlfuß leicht</t>
+  </si>
+  <si>
+    <t>Hohl- Sichelfuß-Spreizfuß</t>
+  </si>
+  <si>
+    <t>Senk-Spreizfuß</t>
+  </si>
+  <si>
+    <t>Normalfuß Tendenz zum Hohlfuß</t>
+  </si>
+  <si>
+    <t>Plattfuß</t>
+  </si>
+  <si>
+    <t>Knick-Senk-Hohlfuß</t>
+  </si>
+  <si>
+    <t>Knickfuß</t>
+  </si>
+  <si>
+    <t>schmaler abgesenkter Hohlfußtyp, Spreizfuß</t>
+  </si>
+  <si>
+    <t>Normalfuß- Spreizfuß</t>
+  </si>
+  <si>
+    <t>Hohl-Spreizfuß</t>
+  </si>
+  <si>
+    <t>Spreizfuß Tendenz zum Hohlfuß</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Prozent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,16 +380,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -352,15 +450,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,829 +769,1383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" activeCellId="1" sqref="A49:XFD49 A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="12" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="G39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="10">
+        <v>2</v>
+      </c>
+      <c r="F54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="F55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B56" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="10">
+        <v>2</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="10">
+        <v>3</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="10">
+        <v>3</v>
+      </c>
+      <c r="F58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="C61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="G61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="C62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="G62" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="C64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10">
+        <v>3</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="10">
+        <v>3</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="10">
+        <v>3</v>
+      </c>
+      <c r="G67" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="10">
+        <v>3</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="C69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C70" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="G70" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="C72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B73" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2</v>
+      </c>
+      <c r="G73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B74" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="10">
+        <v>2</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="G75" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="C76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="B78" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="E80" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="14">
+        <f>SUM(F1:F78)</f>
+        <v>38</v>
+      </c>
+      <c r="G80" s="14">
+        <f>SUM(G1:G78)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="14">
+        <f>(F80/78)*100</f>
+        <v>48.717948717948715</v>
+      </c>
+      <c r="G81" s="14">
+        <f>(G80/78)*100</f>
+        <v>51.282051282051277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>